--- a/AverTest/test_NDISRate/PDFFileNameData/FileName.xlsx
+++ b/AverTest/test_NDISRate/PDFFileNameData/FileName.xlsx
@@ -385,7 +385,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
@@ -407,7 +407,7 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>test_NDISRateElements_09_March_2022_10_55PM.pdf</t>
+          <t>test_NDISRateElements_11_March_2022_06_05PM.pdf</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
@@ -432,12 +432,38 @@
       </c>
     </row>
     <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>test_NDISRateWorking</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>test_NDISRateWorking_11_March_2022_10_02PM.pdf</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>test_NDISRateWorking</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>This test scenario is to verify the Working of NDIS Rate process</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
       <c r="F2" t="inlineStr">
         <is>
           <t>Send Only when Fail=No</t>
         </is>
       </c>
     </row>
+    <row r="3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>

--- a/AverTest/test_NDISRate/PDFFileNameData/FileName.xlsx
+++ b/AverTest/test_NDISRate/PDFFileNameData/FileName.xlsx
@@ -3,13 +3,13 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="20730" windowHeight="9195" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="144525" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -19,7 +19,7 @@
   <fonts count="1">
     <font>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
@@ -166,7 +166,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -201,7 +201,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -376,6 +376,11 @@
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
@@ -385,39 +390,39 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
   <cols>
-    <col width="34.85546875" customWidth="1" min="1" max="1"/>
-    <col width="50.140625" customWidth="1" min="2" max="2"/>
-    <col width="17.140625" customWidth="1" min="3" max="3"/>
-    <col width="21.5703125" customWidth="1" min="6" max="6"/>
+    <col width="34.81640625" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="50.1796875" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col width="17.08984375" customWidth="1" min="3" max="3"/>
+    <col width="21.6328125" bestFit="1" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>test_NDISRateElements</t>
+          <t>test_NDISRateWorking</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>test_NDISRateElements_11_March_2022_06_05PM.pdf</t>
+          <t>test_NDISRateWorking_15_March_2022_11_09PM.pdf</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>test_NDISRateElements</t>
+          <t>test_NDISRateWorking</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>This test scenario is to verify all the Elements present at NDIS Rate page</t>
+          <t>This test scenario is to verify the Working of NDIS Rate process</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
@@ -432,38 +437,12 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>test_NDISRateWorking</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>test_NDISRateWorking_11_March_2022_10_02PM.pdf</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>test_NDISRateWorking</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>This test scenario is to verify the Working of NDIS Rate process</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
       <c r="F2" t="inlineStr">
         <is>
           <t>Send Only when Fail=No</t>
         </is>
       </c>
     </row>
-    <row r="3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
